--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem5/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem5/67/correct_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Strong wireless interference</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,12 +506,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Strong wireless interference</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -536,22 +536,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -566,42 +566,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Wind resistance affected</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Wind resistance affected</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Return to home and land promptly</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>7-12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -686,42 +686,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Return to home and land promptly</t>
+          <t>Propeller rotating too fast</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7-12</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1166,22 +1166,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1196,22 +1196,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>21-27</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-27</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1247,31 +1247,31 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1286,22 +1286,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>The ground or walls may contain metal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>15-21</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>The ground or walls may contain metal</t>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>15-21</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>22-30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1360,36 +1360,6 @@
         </is>
       </c>
       <c r="F31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Move away from sources of interference before attempting flight</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>22-30</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem5/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem5/67/correct_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Strong wireless interference</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,12 +506,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Strong wireless interference</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -536,22 +536,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -566,42 +566,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wind resistance affected</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Wind resistance affected</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Return to home and land promptly</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7-12</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -686,42 +686,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast</t>
+          <t>Return to home and land promptly</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Propeller rotating too fast</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1166,22 +1166,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1196,22 +1196,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-27</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>21-27</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1247,31 +1247,31 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1286,22 +1286,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>The ground or walls may contain metal</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15-21</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>The ground or walls may contain metal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>15-21</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1346,20 +1346,50 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2-14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>22-30</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
